--- a/Test Excel File/Example.xlsx
+++ b/Test Excel File/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Advanced Programming\Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4621492-8C7F-4EE1-B5CF-398975F17BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5845046-938B-4137-8794-CCA057DF93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-3135" windowWidth="15600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="41" r:id="rId1"/>
@@ -184,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -293,7 +293,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -790,26 +790,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EB83C-7ED2-445D-887A-8B2E303F2CB4}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -825,15 +825,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -865,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>

--- a/Test Excel File/Example.xlsx
+++ b/Test Excel File/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5845046-938B-4137-8794-CCA057DF93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764060E-F6BF-4EE9-B543-E3A7A7DF4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-3135" windowWidth="15600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="41" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>/object1/object2/field11</t>
   </si>
   <si>
-    <t>/field12</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>/object5/field15</t>
+  </si>
+  <si>
+    <t>/field99</t>
   </si>
 </sst>
 </file>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EB83C-7ED2-445D-887A-8B2E303F2CB4}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>9</v>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1161,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>

--- a/Test Excel File/Example.xlsx
+++ b/Test Excel File/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764060E-F6BF-4EE9-B543-E3A7A7DF4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F30A8E-B702-4E2F-8A9F-498189F7755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="41" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="59">
   <si>
     <t>I/o</t>
   </si>
@@ -177,6 +177,51 @@
   </si>
   <si>
     <t>/field99</t>
+  </si>
+  <si>
+    <t>GGWP (API_NAME)</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>/gg</t>
+  </si>
+  <si>
+    <t>/gg/field1</t>
+  </si>
+  <si>
+    <t>/gg/field2</t>
+  </si>
+  <si>
+    <t>/gg/field3</t>
+  </si>
+  <si>
+    <t>/gg/field4</t>
+  </si>
+  <si>
+    <t>/gg/object2</t>
+  </si>
+  <si>
+    <t>/gg/object2/field5</t>
+  </si>
+  <si>
+    <t>/gg/object2/field6</t>
+  </si>
+  <si>
+    <t>/gg/object2/field7</t>
+  </si>
+  <si>
+    <t>/gg/object2/field8</t>
+  </si>
+  <si>
+    <t>/gg/object2/field9</t>
+  </si>
+  <si>
+    <t>/gg/object2/field10</t>
+  </si>
+  <si>
+    <t>/gg/object2/field11</t>
   </si>
 </sst>
 </file>
@@ -295,11 +340,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EB83C-7ED2-445D-887A-8B2E303F2CB4}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,370 +846,1082 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Excel File/Example.xlsx
+++ b/Test Excel File/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F30A8E-B702-4E2F-8A9F-498189F7755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCF555-4461-4184-A7BB-9F2E1EC8E904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="41" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="66">
   <si>
     <t>I/o</t>
   </si>
@@ -179,12 +179,6 @@
     <t>/field99</t>
   </si>
   <si>
-    <t>GGWP (API_NAME)</t>
-  </si>
-  <si>
-    <t>ZOMBIE</t>
-  </si>
-  <si>
     <t>/gg</t>
   </si>
   <si>
@@ -222,6 +216,33 @@
   </si>
   <si>
     <t>/gg/object2/field11</t>
+  </si>
+  <si>
+    <t>GGWP22 (API_NAME)</t>
+  </si>
+  <si>
+    <t>GGWP33(API_NAME)</t>
+  </si>
+  <si>
+    <t>dsfsf(API_NAME)</t>
+  </si>
+  <si>
+    <t>GGWhshshP33(AsdPI_NAME)</t>
+  </si>
+  <si>
+    <t>ZOMBIsdsdsdE22</t>
+  </si>
+  <si>
+    <t>ZOMsdsdBIE22</t>
+  </si>
+  <si>
+    <t>ZOsdsdsdMBIE11</t>
+  </si>
+  <si>
+    <t>ZOMdfsdfBIE22</t>
+  </si>
+  <si>
+    <t>ZOdsfggMBIE22</t>
   </si>
 </sst>
 </file>
@@ -830,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EB83C-7ED2-445D-887A-8B2E303F2CB4}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:E85"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1228,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B30" s="16"/>
     </row>
@@ -1221,7 +1242,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>14</v>
@@ -1249,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>18</v>
@@ -1264,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -1279,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
@@ -1294,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -1309,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
@@ -1324,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>19</v>
@@ -1339,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
@@ -1356,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1373,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -1388,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -1403,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -1418,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -1433,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
@@ -1567,7 +1588,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B59" s="16"/>
     </row>
@@ -1581,7 +1602,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>14</v>
@@ -1609,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>18</v>
@@ -1624,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
@@ -1639,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
@@ -1654,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
@@ -1669,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
@@ -1684,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>19</v>
@@ -1699,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
@@ -1716,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
@@ -1733,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
@@ -1748,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
@@ -1763,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -1778,7 +1799,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -1793,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -1922,6 +1943,1086 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="16"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="11"/>
+      <c r="E139" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B150" s="16"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="11"/>
+      <c r="E161" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="4" t="s">
         <v>9</v>
       </c>
     </row>
